--- a/Excel/BuffBleedConfig@cs.xlsx
+++ b/Excel/BuffBleedConfig@cs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD8C45B-C9BE-4EBB-9FE9-02EFAE593DE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F209EF1-0C81-4885-9244-DB847E96B749}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -31,9 +31,6 @@
     <t>出血间隔</t>
   </si>
   <si>
-    <t>OperateType</t>
-  </si>
-  <si>
     <t>CD</t>
   </si>
   <si>
@@ -53,22 +50,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>计算方式
-0=固定值(非千分比)
-1=自身物理攻击力比例(千分比)
-2=自身魔法攻击力比例(千分比)
-3=自身物理防御力比例(千分比)
-4=自身魔法防御力比例(千分比)
-5=自身生命值上限比例(千分比)
-6=自身已损失生命值比例(千分比)
-7=自身当前失生命值比例(千分比)
-8=目标物理攻击力比例(千分比)
-9=目标魔法攻击力比例(千分比)
-10=目标物理防御力比例(千分比)
-11=目标魔法防御力比例(千分比)
-12=目标生命值上限比例(千分比)
-13=目标已损失生命值比例(千分比)
-14=目标当前失生命值比例(千分比)</t>
+    <t>FormulaId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算公式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +445,7 @@
   <dimension ref="C2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -474,7 +460,7 @@
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="3:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -482,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -497,10 +483,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
@@ -508,13 +494,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BuffBleedConfig@cs.xlsx
+++ b/Excel/BuffBleedConfig@cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F209EF1-0C81-4885-9244-DB847E96B749}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA210C7B-EEDD-4809-B9EA-D5A067E9EE66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F5"/>
+  <dimension ref="C2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -503,6 +503,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
